--- a/Data/1686_MOB.xlsx
+++ b/Data/1686_MOB.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,15 +141,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I323"/>
+  <dimension ref="A2:I479"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A184" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A464" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C475" sqref="C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -458,7 +466,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>10011</v>
       </c>
       <c r="D3" t="s">
@@ -490,7 +498,7 @@
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -503,7 +511,7 @@
         <f t="shared" ref="B5:B68" si="1">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>9994</v>
       </c>
     </row>
@@ -516,7 +524,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>10006</v>
       </c>
     </row>
@@ -529,7 +537,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -542,7 +550,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -555,7 +563,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>9990</v>
       </c>
     </row>
@@ -568,7 +576,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -581,7 +589,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>9988</v>
       </c>
     </row>
@@ -594,7 +602,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -607,7 +615,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -620,7 +628,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -633,7 +641,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -646,7 +654,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>9992</v>
       </c>
     </row>
@@ -659,7 +667,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>10015</v>
       </c>
     </row>
@@ -672,7 +680,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -685,7 +693,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -698,7 +706,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -711,7 +719,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>9994</v>
       </c>
     </row>
@@ -724,7 +732,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -737,7 +745,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>9984</v>
       </c>
     </row>
@@ -750,7 +758,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -763,7 +771,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -776,7 +784,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -789,7 +797,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -802,7 +810,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -815,7 +823,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -828,7 +836,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -841,7 +849,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -854,7 +862,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -867,7 +875,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -880,7 +888,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -893,7 +901,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -906,7 +914,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -919,7 +927,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -932,7 +940,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>9990</v>
       </c>
     </row>
@@ -945,7 +953,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -958,7 +966,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -971,7 +979,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>9994</v>
       </c>
     </row>
@@ -984,7 +992,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>99976</v>
       </c>
     </row>
@@ -997,7 +1005,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>10009</v>
       </c>
     </row>
@@ -1010,7 +1018,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1023,7 +1031,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1036,7 +1044,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1049,7 +1057,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -1062,7 +1070,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>9992</v>
       </c>
     </row>
@@ -1075,7 +1083,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -1088,7 +1096,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1101,7 +1109,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>10013</v>
       </c>
     </row>
@@ -1114,7 +1122,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -1127,7 +1135,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1140,7 +1148,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -1153,7 +1161,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1166,7 +1174,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>10013</v>
       </c>
     </row>
@@ -1179,7 +1187,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1192,7 +1200,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1205,7 +1213,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1218,7 +1226,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -1231,7 +1239,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1244,7 +1252,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1257,7 +1265,7 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -1270,7 +1278,7 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -1283,7 +1291,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1296,7 +1304,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -1309,7 +1317,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1335,7 +1343,7 @@
         <f t="shared" ref="B69:B132" si="3">B68+1</f>
         <v>67</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1348,7 +1356,7 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -1361,7 +1369,7 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1374,7 +1382,7 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1387,7 +1395,7 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1400,7 +1408,7 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>10011</v>
       </c>
     </row>
@@ -1413,7 +1421,7 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>9978</v>
       </c>
     </row>
@@ -1426,7 +1434,7 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1439,7 +1447,7 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1452,7 +1460,7 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>10011</v>
       </c>
     </row>
@@ -1465,7 +1473,7 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1478,7 +1486,7 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1491,7 +1499,7 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1504,7 +1512,7 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1517,7 +1525,7 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>10014</v>
       </c>
     </row>
@@ -1530,7 +1538,7 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1543,7 +1551,7 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="9">
         <v>10010</v>
       </c>
     </row>
@@ -1556,7 +1564,7 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="9">
         <v>9977</v>
       </c>
     </row>
@@ -1569,7 +1577,7 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1582,7 +1590,7 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -1595,7 +1603,7 @@
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1608,7 +1616,7 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -1621,7 +1629,7 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1634,7 +1642,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="9">
         <v>9994</v>
       </c>
     </row>
@@ -1647,7 +1655,7 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1660,7 +1668,7 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1673,7 +1681,7 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -1686,7 +1694,7 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1699,7 +1707,7 @@
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1712,7 +1720,7 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -1725,7 +1733,7 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -1738,7 +1746,7 @@
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="9">
         <v>10006</v>
       </c>
     </row>
@@ -1751,7 +1759,7 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="9">
         <v>9985</v>
       </c>
     </row>
@@ -1764,7 +1772,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1777,7 +1785,7 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="9">
         <v>9979</v>
       </c>
     </row>
@@ -1790,7 +1798,7 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1803,7 +1811,7 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="9">
         <v>10010</v>
       </c>
     </row>
@@ -1816,7 +1824,7 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1829,7 +1837,7 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="9">
         <v>10009</v>
       </c>
     </row>
@@ -1842,7 +1850,7 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -1855,7 +1863,7 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -1868,7 +1876,7 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="9">
         <v>9988</v>
       </c>
     </row>
@@ -1881,7 +1889,7 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -1894,7 +1902,7 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -1907,7 +1915,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -1920,7 +1928,7 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1933,7 +1941,7 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="9">
         <v>9984</v>
       </c>
     </row>
@@ -1946,7 +1954,7 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -1959,7 +1967,7 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -1972,7 +1980,7 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -1998,7 +2006,7 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2011,7 +2019,7 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -2024,7 +2032,7 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -2037,7 +2045,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2050,7 +2058,7 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -2063,7 +2071,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2076,7 +2084,7 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2089,7 +2097,7 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="9">
         <v>9994</v>
       </c>
     </row>
@@ -2102,7 +2110,7 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -2115,7 +2123,7 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="9">
         <v>9992</v>
       </c>
     </row>
@@ -2128,7 +2136,7 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="9">
         <v>10010</v>
       </c>
     </row>
@@ -2141,7 +2149,7 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="9">
         <v>9982</v>
       </c>
     </row>
@@ -2154,7 +2162,7 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2167,7 +2175,7 @@
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="9">
         <v>9993</v>
       </c>
     </row>
@@ -2180,7 +2188,7 @@
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="9">
         <v>9987</v>
       </c>
     </row>
@@ -2193,7 +2201,7 @@
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2206,7 +2214,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2219,7 +2227,7 @@
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -2232,7 +2240,7 @@
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2245,7 +2253,7 @@
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2258,7 +2266,7 @@
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2271,7 +2279,7 @@
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2284,7 +2292,7 @@
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -2297,7 +2305,7 @@
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2310,7 +2318,7 @@
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2323,7 +2331,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2336,7 +2344,7 @@
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2349,7 +2357,7 @@
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2362,7 +2370,7 @@
         <f t="shared" ref="B148:B179" si="6">B147+1</f>
         <v>146</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2375,7 +2383,7 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2388,7 +2396,7 @@
         <f t="shared" si="6"/>
         <v>148</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -2401,7 +2409,7 @@
         <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2414,7 +2422,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="9">
         <v>9979</v>
       </c>
     </row>
@@ -2427,7 +2435,7 @@
         <f t="shared" si="6"/>
         <v>151</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -2440,7 +2448,7 @@
         <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2453,7 +2461,7 @@
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2466,7 +2474,7 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2479,7 +2487,7 @@
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -2492,7 +2500,7 @@
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2505,7 +2513,7 @@
         <f t="shared" si="6"/>
         <v>157</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="9">
         <v>9997</v>
       </c>
     </row>
@@ -2518,7 +2526,7 @@
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="9">
         <v>9990</v>
       </c>
     </row>
@@ -2531,7 +2539,7 @@
         <f t="shared" si="6"/>
         <v>159</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -2544,7 +2552,7 @@
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="9">
         <v>10008</v>
       </c>
     </row>
@@ -2557,7 +2565,7 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -2570,7 +2578,7 @@
         <f t="shared" si="6"/>
         <v>162</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="9">
         <v>9992</v>
       </c>
     </row>
@@ -2583,7 +2591,7 @@
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2596,7 +2604,7 @@
         <f t="shared" si="6"/>
         <v>164</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -2609,7 +2617,7 @@
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="9">
         <v>10002</v>
       </c>
     </row>
@@ -2622,7 +2630,7 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="9">
         <v>10013</v>
       </c>
     </row>
@@ -2635,7 +2643,7 @@
         <f t="shared" si="6"/>
         <v>167</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="9">
         <v>10011</v>
       </c>
     </row>
@@ -2648,7 +2656,7 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -2661,7 +2669,7 @@
         <f t="shared" si="6"/>
         <v>169</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="9">
         <v>10008</v>
       </c>
     </row>
@@ -2674,7 +2682,7 @@
         <f t="shared" si="6"/>
         <v>170</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="9">
         <v>10011</v>
       </c>
     </row>
@@ -2687,7 +2695,7 @@
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="9">
         <v>9995</v>
       </c>
     </row>
@@ -2700,7 +2708,7 @@
         <f t="shared" si="6"/>
         <v>172</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -2713,7 +2721,7 @@
         <f t="shared" si="6"/>
         <v>173</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="9">
         <v>9988</v>
       </c>
     </row>
@@ -2726,7 +2734,7 @@
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="9">
         <v>10004</v>
       </c>
     </row>
@@ -2739,7 +2747,7 @@
         <f t="shared" si="6"/>
         <v>175</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2752,7 +2760,7 @@
         <f t="shared" si="6"/>
         <v>176</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2765,7 +2773,7 @@
         <f t="shared" si="6"/>
         <v>177</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="9">
         <v>9986</v>
       </c>
     </row>
@@ -2778,7 +2786,7 @@
         <f t="shared" ref="B180:B211" si="8">B179+1</f>
         <v>178</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -2791,7 +2799,7 @@
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="9">
         <v>9983</v>
       </c>
     </row>
@@ -2804,7 +2812,7 @@
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="9">
         <v>10001</v>
       </c>
     </row>
@@ -2817,7 +2825,7 @@
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="9">
         <v>10005</v>
       </c>
     </row>
@@ -2830,7 +2838,7 @@
         <f t="shared" si="8"/>
         <v>182</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="9">
         <v>10003</v>
       </c>
     </row>
@@ -2843,7 +2851,7 @@
         <f t="shared" si="8"/>
         <v>183</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="9">
         <v>9998</v>
       </c>
     </row>
@@ -2856,7 +2864,7 @@
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -2869,7 +2877,7 @@
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2882,7 +2890,7 @@
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="9">
         <v>10014</v>
       </c>
     </row>
@@ -2895,7 +2903,7 @@
         <f t="shared" si="8"/>
         <v>187</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="9">
         <v>9988</v>
       </c>
     </row>
@@ -2908,7 +2916,7 @@
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="9">
         <v>9996</v>
       </c>
     </row>
@@ -2921,7 +2929,7 @@
         <f t="shared" si="8"/>
         <v>189</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="9">
         <v>9993</v>
       </c>
     </row>
@@ -2934,7 +2942,7 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="9">
         <v>9976</v>
       </c>
     </row>
@@ -2947,7 +2955,7 @@
         <f t="shared" si="8"/>
         <v>191</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -2960,7 +2968,7 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="9">
         <v>10006</v>
       </c>
     </row>
@@ -2973,7 +2981,7 @@
         <f t="shared" si="8"/>
         <v>193</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="9">
         <v>9999</v>
       </c>
     </row>
@@ -2986,7 +2994,9 @@
         <f t="shared" si="8"/>
         <v>194</v>
       </c>
-      <c r="C196" s="8"/>
+      <c r="C196" s="9">
+        <v>9997</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -2997,7 +3007,9 @@
         <f t="shared" si="8"/>
         <v>195</v>
       </c>
-      <c r="C197" s="8"/>
+      <c r="C197" s="9">
+        <v>10000</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -3008,7 +3020,9 @@
         <f t="shared" si="8"/>
         <v>196</v>
       </c>
-      <c r="C198" s="8"/>
+      <c r="C198" s="9">
+        <v>10007</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -3019,7 +3033,9 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="C199" s="8"/>
+      <c r="C199" s="9">
+        <v>9995</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -3030,7 +3046,9 @@
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="C200" s="8"/>
+      <c r="C200" s="9">
+        <v>10003</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -3041,7 +3059,9 @@
         <f t="shared" si="8"/>
         <v>199</v>
       </c>
-      <c r="C201" s="8"/>
+      <c r="C201" s="9">
+        <v>9996</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -3052,7 +3072,9 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="C202" s="8"/>
+      <c r="C202" s="9">
+        <v>10009</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -3063,7 +3085,9 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="C203" s="11"/>
+      <c r="C203" s="10">
+        <v>10000</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -3074,7 +3098,9 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="C204" s="11"/>
+      <c r="C204" s="10">
+        <v>9995</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -3085,7 +3111,9 @@
         <f t="shared" si="8"/>
         <v>203</v>
       </c>
-      <c r="C205" s="11"/>
+      <c r="C205" s="10">
+        <v>10001</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -3096,7 +3124,9 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="C206" s="11"/>
+      <c r="C206" s="10">
+        <v>10003</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -3107,7 +3137,9 @@
         <f t="shared" si="8"/>
         <v>205</v>
       </c>
-      <c r="C207" s="11"/>
+      <c r="C207" s="10">
+        <v>10005</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -3118,7 +3150,9 @@
         <f t="shared" si="8"/>
         <v>206</v>
       </c>
-      <c r="C208" s="11"/>
+      <c r="C208" s="10">
+        <v>10002</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -3129,7 +3163,9 @@
         <f t="shared" si="8"/>
         <v>207</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C209" s="11">
+        <v>10002</v>
+      </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -3143,7 +3179,9 @@
         <f t="shared" si="8"/>
         <v>208</v>
       </c>
-      <c r="C210" s="9"/>
+      <c r="C210" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -3154,7 +3192,9 @@
         <f t="shared" si="8"/>
         <v>209</v>
       </c>
-      <c r="C211" s="9"/>
+      <c r="C211" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -3165,7 +3205,9 @@
         <f t="shared" ref="B212:B239" si="10">B211+1</f>
         <v>210</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -3176,7 +3218,9 @@
         <f t="shared" si="10"/>
         <v>211</v>
       </c>
-      <c r="C213" s="9"/>
+      <c r="C213" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -3187,7 +3231,9 @@
         <f t="shared" si="10"/>
         <v>212</v>
       </c>
-      <c r="C214" s="9"/>
+      <c r="C214" s="11">
+        <v>10005</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -3198,7 +3244,9 @@
         <f t="shared" si="10"/>
         <v>213</v>
       </c>
-      <c r="C215" s="9"/>
+      <c r="C215" s="11">
+        <v>10005</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -3209,7 +3257,9 @@
         <f t="shared" si="10"/>
         <v>214</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="C216" s="11">
+        <v>10012</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -3220,7 +3270,9 @@
         <f t="shared" si="10"/>
         <v>215</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -3231,7 +3283,9 @@
         <f t="shared" si="10"/>
         <v>216</v>
       </c>
-      <c r="C218" s="9"/>
+      <c r="C218" s="11">
+        <v>9980</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -3242,7 +3296,9 @@
         <f t="shared" si="10"/>
         <v>217</v>
       </c>
-      <c r="C219" s="9"/>
+      <c r="C219" s="11">
+        <v>10008</v>
+      </c>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -3256,7 +3312,9 @@
         <f t="shared" si="10"/>
         <v>218</v>
       </c>
-      <c r="C220" s="9"/>
+      <c r="C220" s="11">
+        <v>10006</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -3267,7 +3325,9 @@
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="C221" s="9"/>
+      <c r="C221" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -3278,7 +3338,9 @@
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="C222" s="9"/>
+      <c r="C222" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -3289,7 +3351,9 @@
         <f t="shared" si="10"/>
         <v>221</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C223" s="11">
+        <v>10007</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -3300,7 +3364,9 @@
         <f t="shared" si="10"/>
         <v>222</v>
       </c>
-      <c r="C224" s="9"/>
+      <c r="C224" s="11">
+        <v>10010</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -3311,7 +3377,9 @@
         <f t="shared" si="10"/>
         <v>223</v>
       </c>
-      <c r="C225" s="9"/>
+      <c r="C225" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -3322,7 +3390,9 @@
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="C226" s="9"/>
+      <c r="C226" s="11">
+        <v>10007</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -3333,7 +3403,9 @@
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
-      <c r="C227" s="9"/>
+      <c r="C227" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -3344,7 +3416,9 @@
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
-      <c r="C228" s="9"/>
+      <c r="C228" s="11">
+        <v>10010</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -3355,7 +3429,9 @@
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="C229" s="9"/>
+      <c r="C229" s="11">
+        <v>10007</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -3366,7 +3442,9 @@
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="C230" s="9"/>
+      <c r="C230" s="11">
+        <v>9995</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -3377,7 +3455,9 @@
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="C231" s="9"/>
+      <c r="C231" s="11">
+        <v>10011</v>
+      </c>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -3391,7 +3471,9 @@
         <f t="shared" si="10"/>
         <v>230</v>
       </c>
-      <c r="C232" s="9"/>
+      <c r="C232" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -3402,7 +3484,9 @@
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
-      <c r="C233" s="9"/>
+      <c r="C233" s="11">
+        <v>9996</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -3413,7 +3497,9 @@
         <f t="shared" si="10"/>
         <v>232</v>
       </c>
-      <c r="C234" s="9"/>
+      <c r="C234" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -3424,7 +3510,9 @@
         <f t="shared" si="10"/>
         <v>233</v>
       </c>
-      <c r="C235" s="9"/>
+      <c r="C235" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -3435,7 +3523,9 @@
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="C236" s="9"/>
+      <c r="C236" s="11">
+        <v>9998</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -3446,7 +3536,9 @@
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="C237" s="9"/>
+      <c r="C237" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -3457,7 +3549,9 @@
         <f t="shared" si="10"/>
         <v>236</v>
       </c>
-      <c r="C238" s="9"/>
+      <c r="C238" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -3468,7 +3562,9 @@
         <f t="shared" si="10"/>
         <v>237</v>
       </c>
-      <c r="C239" s="9"/>
+      <c r="C239" s="11">
+        <v>10006</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -3479,7 +3575,9 @@
         <f t="shared" si="11"/>
         <v>238</v>
       </c>
-      <c r="C240" s="9"/>
+      <c r="C240" s="11">
+        <v>9994</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -3490,7 +3588,9 @@
         <f t="shared" si="11"/>
         <v>239</v>
       </c>
-      <c r="C241" s="9"/>
+      <c r="C241" s="11">
+        <v>9996</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -3501,7 +3601,9 @@
         <f t="shared" si="11"/>
         <v>240</v>
       </c>
-      <c r="C242" s="9"/>
+      <c r="C242" s="11">
+        <v>9998</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -3512,7 +3614,9 @@
         <f t="shared" si="11"/>
         <v>241</v>
       </c>
-      <c r="C243" s="9"/>
+      <c r="C243" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -3523,7 +3627,9 @@
         <f t="shared" si="11"/>
         <v>242</v>
       </c>
-      <c r="C244" s="9"/>
+      <c r="C244" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -3534,7 +3640,9 @@
         <f t="shared" si="11"/>
         <v>243</v>
       </c>
-      <c r="C245" s="9"/>
+      <c r="C245" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -3545,7 +3653,9 @@
         <f t="shared" ref="B246:B277" si="13">B245+1</f>
         <v>244</v>
       </c>
-      <c r="C246" s="9"/>
+      <c r="C246" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -3556,7 +3666,9 @@
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="C247" s="9"/>
+      <c r="C247" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -3567,7 +3679,9 @@
         <f t="shared" si="13"/>
         <v>246</v>
       </c>
-      <c r="C248" s="9"/>
+      <c r="C248" s="11">
+        <v>10003</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -3578,7 +3692,9 @@
         <f t="shared" si="13"/>
         <v>247</v>
       </c>
-      <c r="C249" s="9"/>
+      <c r="C249" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -3589,7 +3705,9 @@
         <f t="shared" si="13"/>
         <v>248</v>
       </c>
-      <c r="C250" s="9"/>
+      <c r="C250" s="11">
+        <v>9995</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -3600,7 +3718,9 @@
         <f t="shared" si="13"/>
         <v>249</v>
       </c>
-      <c r="C251" s="9"/>
+      <c r="C251" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -3611,7 +3731,9 @@
         <f t="shared" si="13"/>
         <v>250</v>
       </c>
-      <c r="C252" s="9"/>
+      <c r="C252" s="11">
+        <v>9996</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -3622,7 +3744,9 @@
         <f t="shared" si="13"/>
         <v>251</v>
       </c>
-      <c r="C253" s="9"/>
+      <c r="C253" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -3633,7 +3757,9 @@
         <f t="shared" si="13"/>
         <v>252</v>
       </c>
-      <c r="C254" s="9"/>
+      <c r="C254" s="11">
+        <v>9985</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -3644,7 +3770,9 @@
         <f t="shared" si="13"/>
         <v>253</v>
       </c>
-      <c r="C255" s="9"/>
+      <c r="C255" s="11">
+        <v>9995</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -3655,7 +3783,9 @@
         <f t="shared" si="13"/>
         <v>254</v>
       </c>
-      <c r="C256" s="9"/>
+      <c r="C256" s="11">
+        <v>9998</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -3666,7 +3796,9 @@
         <f t="shared" si="13"/>
         <v>255</v>
       </c>
-      <c r="C257" s="9"/>
+      <c r="C257" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -3677,7 +3809,9 @@
         <f t="shared" si="13"/>
         <v>256</v>
       </c>
-      <c r="C258" s="9"/>
+      <c r="C258" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -3688,7 +3822,9 @@
         <f t="shared" si="13"/>
         <v>257</v>
       </c>
-      <c r="C259" s="9"/>
+      <c r="C259" s="11">
+        <v>10003</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
@@ -3699,7 +3835,9 @@
         <f t="shared" si="13"/>
         <v>258</v>
       </c>
-      <c r="C260" s="9"/>
+      <c r="C260" s="11">
+        <v>10007</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
@@ -3710,7 +3848,9 @@
         <f t="shared" si="13"/>
         <v>259</v>
       </c>
-      <c r="C261" s="9"/>
+      <c r="C261" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -3721,7 +3861,9 @@
         <f t="shared" si="13"/>
         <v>260</v>
       </c>
-      <c r="C262" s="9"/>
+      <c r="C262" s="11">
+        <v>10011</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -3732,7 +3874,9 @@
         <f t="shared" si="13"/>
         <v>261</v>
       </c>
-      <c r="C263" s="9"/>
+      <c r="C263" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -3743,7 +3887,9 @@
         <f t="shared" si="13"/>
         <v>262</v>
       </c>
-      <c r="C264" s="9"/>
+      <c r="C264" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -3754,7 +3900,9 @@
         <f t="shared" si="13"/>
         <v>263</v>
       </c>
-      <c r="C265" s="9"/>
+      <c r="C265" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -3765,7 +3913,9 @@
         <f t="shared" si="13"/>
         <v>264</v>
       </c>
-      <c r="C266" s="9"/>
+      <c r="C266" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -3776,7 +3926,9 @@
         <f t="shared" si="13"/>
         <v>265</v>
       </c>
-      <c r="C267" s="9"/>
+      <c r="C267" s="11">
+        <v>10003</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -3787,7 +3939,9 @@
         <f t="shared" si="13"/>
         <v>266</v>
       </c>
-      <c r="C268" s="9"/>
+      <c r="C268" s="11">
+        <v>10004</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -3798,7 +3952,9 @@
         <f t="shared" si="13"/>
         <v>267</v>
       </c>
-      <c r="C269" s="9"/>
+      <c r="C269" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -3809,7 +3965,9 @@
         <f t="shared" si="13"/>
         <v>268</v>
       </c>
-      <c r="C270" s="9"/>
+      <c r="C270" s="11">
+        <v>10009</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -3820,7 +3978,9 @@
         <f t="shared" si="13"/>
         <v>269</v>
       </c>
-      <c r="C271" s="9"/>
+      <c r="C271" s="11">
+        <v>9998</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -3831,7 +3991,9 @@
         <f t="shared" si="13"/>
         <v>270</v>
       </c>
-      <c r="C272" s="9"/>
+      <c r="C272" s="11">
+        <v>9993</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
@@ -3842,7 +4004,9 @@
         <f t="shared" si="13"/>
         <v>271</v>
       </c>
-      <c r="C273" s="9"/>
+      <c r="C273" s="11">
+        <v>9996</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
@@ -3853,7 +4017,9 @@
         <f t="shared" si="13"/>
         <v>272</v>
       </c>
-      <c r="C274" s="9"/>
+      <c r="C274" s="11">
+        <v>10012</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
@@ -3864,7 +4030,9 @@
         <f t="shared" si="13"/>
         <v>273</v>
       </c>
-      <c r="C275" s="9"/>
+      <c r="C275" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -3875,7 +4043,9 @@
         <f t="shared" si="13"/>
         <v>274</v>
       </c>
-      <c r="C276" s="9"/>
+      <c r="C276" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -3886,7 +4056,9 @@
         <f t="shared" si="13"/>
         <v>275</v>
       </c>
-      <c r="C277" s="9"/>
+      <c r="C277" s="11">
+        <v>9996</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -3897,7 +4069,9 @@
         <f t="shared" ref="B278:B309" si="15">B277+1</f>
         <v>276</v>
       </c>
-      <c r="C278" s="9"/>
+      <c r="C278" s="11">
+        <v>9992</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -3908,7 +4082,9 @@
         <f t="shared" si="15"/>
         <v>277</v>
       </c>
-      <c r="C279" s="9"/>
+      <c r="C279" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -3919,7 +4095,9 @@
         <f t="shared" si="15"/>
         <v>278</v>
       </c>
-      <c r="C280" s="9"/>
+      <c r="C280" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -3930,7 +4108,9 @@
         <f t="shared" si="15"/>
         <v>279</v>
       </c>
-      <c r="C281" s="9"/>
+      <c r="C281" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -3941,7 +4121,9 @@
         <f t="shared" si="15"/>
         <v>280</v>
       </c>
-      <c r="C282" s="9"/>
+      <c r="C282" s="11">
+        <v>9994</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -3952,7 +4134,9 @@
         <f t="shared" si="15"/>
         <v>281</v>
       </c>
-      <c r="C283" s="9"/>
+      <c r="C283" s="11">
+        <v>9987</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -3963,7 +4147,9 @@
         <f t="shared" si="15"/>
         <v>282</v>
       </c>
-      <c r="C284" s="9"/>
+      <c r="C284" s="11">
+        <v>9985</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -3974,7 +4160,9 @@
         <f t="shared" si="15"/>
         <v>283</v>
       </c>
-      <c r="C285" s="9"/>
+      <c r="C285" s="11">
+        <v>9995</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -3985,7 +4173,9 @@
         <f t="shared" si="15"/>
         <v>284</v>
       </c>
-      <c r="C286" s="9"/>
+      <c r="C286" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -3996,7 +4186,9 @@
         <f t="shared" si="15"/>
         <v>285</v>
       </c>
-      <c r="C287" s="9"/>
+      <c r="C287" s="11">
+        <v>10001</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -4007,7 +4199,9 @@
         <f t="shared" si="15"/>
         <v>286</v>
       </c>
-      <c r="C288" s="9"/>
+      <c r="C288" s="11">
+        <v>9991</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
@@ -4018,7 +4212,9 @@
         <f t="shared" si="15"/>
         <v>287</v>
       </c>
-      <c r="C289" s="9"/>
+      <c r="C289" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -4029,7 +4225,9 @@
         <f t="shared" si="15"/>
         <v>288</v>
       </c>
-      <c r="C290" s="9"/>
+      <c r="C290" s="11">
+        <v>9987</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
@@ -4040,7 +4238,9 @@
         <f t="shared" si="15"/>
         <v>289</v>
       </c>
-      <c r="C291" s="9"/>
+      <c r="C291" s="11">
+        <v>9995</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
@@ -4051,7 +4251,9 @@
         <f t="shared" si="15"/>
         <v>290</v>
       </c>
-      <c r="C292" s="9"/>
+      <c r="C292" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
@@ -4062,7 +4264,9 @@
         <f t="shared" si="15"/>
         <v>291</v>
       </c>
-      <c r="C293" s="9"/>
+      <c r="C293" s="11">
+        <v>9984</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
@@ -4073,7 +4277,9 @@
         <f t="shared" si="15"/>
         <v>292</v>
       </c>
-      <c r="C294" s="9"/>
+      <c r="C294" s="11">
+        <v>9991</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
@@ -4084,7 +4290,9 @@
         <f t="shared" si="15"/>
         <v>293</v>
       </c>
-      <c r="C295" s="9"/>
+      <c r="C295" s="11">
+        <v>9986</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
@@ -4095,7 +4303,9 @@
         <f t="shared" si="15"/>
         <v>294</v>
       </c>
-      <c r="C296" s="9"/>
+      <c r="C296" s="11">
+        <v>10008</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
@@ -4106,7 +4316,9 @@
         <f t="shared" si="15"/>
         <v>295</v>
       </c>
-      <c r="C297" s="9"/>
+      <c r="C297" s="11">
+        <v>10002</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
@@ -4117,7 +4329,9 @@
         <f t="shared" si="15"/>
         <v>296</v>
       </c>
-      <c r="C298" s="9"/>
+      <c r="C298" s="11">
+        <v>9994</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
@@ -4128,7 +4342,9 @@
         <f t="shared" si="15"/>
         <v>297</v>
       </c>
-      <c r="C299" s="9"/>
+      <c r="C299" s="11">
+        <v>9994</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -4139,7 +4355,9 @@
         <f t="shared" si="15"/>
         <v>298</v>
       </c>
-      <c r="C300" s="9"/>
+      <c r="C300" s="11">
+        <v>9999</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
@@ -4150,7 +4368,9 @@
         <f t="shared" si="15"/>
         <v>299</v>
       </c>
-      <c r="C301" s="9"/>
+      <c r="C301" s="11">
+        <v>10010</v>
+      </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
@@ -4161,7 +4381,9 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="C302" s="9"/>
+      <c r="C302" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
@@ -4172,7 +4394,9 @@
         <f t="shared" si="15"/>
         <v>301</v>
       </c>
-      <c r="C303" s="9"/>
+      <c r="C303" s="11">
+        <v>9991</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -4183,7 +4407,9 @@
         <f t="shared" si="15"/>
         <v>302</v>
       </c>
-      <c r="C304" s="9"/>
+      <c r="C304" s="11">
+        <v>10010</v>
+      </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -4194,7 +4420,9 @@
         <f t="shared" si="15"/>
         <v>303</v>
       </c>
-      <c r="C305" s="9"/>
+      <c r="C305" s="11">
+        <v>10004</v>
+      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
@@ -4205,7 +4433,9 @@
         <f t="shared" si="15"/>
         <v>304</v>
       </c>
-      <c r="C306" s="10"/>
+      <c r="C306" s="12">
+        <v>9997</v>
+      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
@@ -4216,7 +4446,9 @@
         <f t="shared" si="15"/>
         <v>305</v>
       </c>
-      <c r="C307" s="10"/>
+      <c r="C307" s="12">
+        <v>10000</v>
+      </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
@@ -4227,7 +4459,9 @@
         <f t="shared" si="15"/>
         <v>306</v>
       </c>
-      <c r="C308" s="10"/>
+      <c r="C308" s="12">
+        <v>10004</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -4238,18 +4472,22 @@
         <f t="shared" si="15"/>
         <v>307</v>
       </c>
-      <c r="C309" s="10"/>
+      <c r="C309" s="12">
+        <v>10002</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f t="shared" ref="A310:A320" si="16">A309+1</f>
+        <f t="shared" ref="A310:A373" si="16">A309+1</f>
         <v>308</v>
       </c>
       <c r="B310" s="3">
-        <f t="shared" ref="B310:B320" si="17">B309+1</f>
+        <f t="shared" ref="B310:B373" si="17">B309+1</f>
         <v>308</v>
       </c>
-      <c r="C310" s="10"/>
+      <c r="C310" s="12">
+        <v>10016</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -4260,7 +4498,9 @@
         <f t="shared" si="17"/>
         <v>309</v>
       </c>
-      <c r="C311" s="10"/>
+      <c r="C311" s="12">
+        <v>9997</v>
+      </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -4271,7 +4511,9 @@
         <f t="shared" si="17"/>
         <v>310</v>
       </c>
-      <c r="C312" s="10"/>
+      <c r="C312" s="12">
+        <v>10006</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -4282,7 +4524,9 @@
         <f t="shared" si="17"/>
         <v>311</v>
       </c>
-      <c r="C313" s="10"/>
+      <c r="C313" s="12">
+        <v>9995</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -4293,7 +4537,9 @@
         <f t="shared" si="17"/>
         <v>312</v>
       </c>
-      <c r="C314" s="10"/>
+      <c r="C314" s="12">
+        <v>9988</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
@@ -4304,7 +4550,9 @@
         <f t="shared" si="17"/>
         <v>313</v>
       </c>
-      <c r="C315" s="10"/>
+      <c r="C315" s="12">
+        <v>10004</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
@@ -4315,7 +4563,9 @@
         <f t="shared" si="17"/>
         <v>314</v>
       </c>
-      <c r="C316" s="10"/>
+      <c r="C316" s="12">
+        <v>9998</v>
+      </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
@@ -4326,7 +4576,9 @@
         <f t="shared" si="17"/>
         <v>315</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="12">
+        <v>10005</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
@@ -4337,7 +4589,9 @@
         <f t="shared" si="17"/>
         <v>316</v>
       </c>
-      <c r="C318" s="10"/>
+      <c r="C318" s="12">
+        <v>9997</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -4348,7 +4602,9 @@
         <f t="shared" si="17"/>
         <v>317</v>
       </c>
-      <c r="C319" s="10"/>
+      <c r="C319" s="12">
+        <v>10004</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -4359,16 +4615,2061 @@
         <f t="shared" si="17"/>
         <v>318</v>
       </c>
-      <c r="C320" s="10"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="10"/>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="10"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="10"/>
+      <c r="C320" s="12">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f t="shared" si="16"/>
+        <v>319</v>
+      </c>
+      <c r="B321" s="3">
+        <f t="shared" si="17"/>
+        <v>319</v>
+      </c>
+      <c r="C321" s="12">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f t="shared" si="16"/>
+        <v>320</v>
+      </c>
+      <c r="B322" s="3">
+        <f t="shared" si="17"/>
+        <v>320</v>
+      </c>
+      <c r="C322" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f t="shared" si="16"/>
+        <v>321</v>
+      </c>
+      <c r="B323" s="3">
+        <f t="shared" si="17"/>
+        <v>321</v>
+      </c>
+      <c r="C323" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f t="shared" si="16"/>
+        <v>322</v>
+      </c>
+      <c r="B324" s="3">
+        <f t="shared" si="17"/>
+        <v>322</v>
+      </c>
+      <c r="C324" s="12">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f t="shared" si="16"/>
+        <v>323</v>
+      </c>
+      <c r="B325" s="3">
+        <f t="shared" si="17"/>
+        <v>323</v>
+      </c>
+      <c r="C325" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f t="shared" si="16"/>
+        <v>324</v>
+      </c>
+      <c r="B326" s="3">
+        <f t="shared" si="17"/>
+        <v>324</v>
+      </c>
+      <c r="C326" s="12">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f t="shared" si="16"/>
+        <v>325</v>
+      </c>
+      <c r="B327" s="3">
+        <f t="shared" si="17"/>
+        <v>325</v>
+      </c>
+      <c r="C327" s="12">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f t="shared" si="16"/>
+        <v>326</v>
+      </c>
+      <c r="B328" s="3">
+        <f t="shared" si="17"/>
+        <v>326</v>
+      </c>
+      <c r="C328" s="12">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f t="shared" si="16"/>
+        <v>327</v>
+      </c>
+      <c r="B329" s="3">
+        <f t="shared" si="17"/>
+        <v>327</v>
+      </c>
+      <c r="C329" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f t="shared" si="16"/>
+        <v>328</v>
+      </c>
+      <c r="B330" s="3">
+        <f t="shared" si="17"/>
+        <v>328</v>
+      </c>
+      <c r="C330" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f t="shared" si="16"/>
+        <v>329</v>
+      </c>
+      <c r="B331" s="3">
+        <f t="shared" si="17"/>
+        <v>329</v>
+      </c>
+      <c r="C331" s="12">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f t="shared" si="16"/>
+        <v>330</v>
+      </c>
+      <c r="B332" s="3">
+        <f t="shared" si="17"/>
+        <v>330</v>
+      </c>
+      <c r="C332" s="12">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f t="shared" si="16"/>
+        <v>331</v>
+      </c>
+      <c r="B333" s="3">
+        <f t="shared" si="17"/>
+        <v>331</v>
+      </c>
+      <c r="C333" s="12">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f t="shared" si="16"/>
+        <v>332</v>
+      </c>
+      <c r="B334" s="3">
+        <f t="shared" si="17"/>
+        <v>332</v>
+      </c>
+      <c r="C334" s="12">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f t="shared" si="16"/>
+        <v>333</v>
+      </c>
+      <c r="B335" s="3">
+        <f t="shared" si="17"/>
+        <v>333</v>
+      </c>
+      <c r="C335" s="12">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f t="shared" si="16"/>
+        <v>334</v>
+      </c>
+      <c r="B336" s="3">
+        <f t="shared" si="17"/>
+        <v>334</v>
+      </c>
+      <c r="C336" s="12">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f t="shared" si="16"/>
+        <v>335</v>
+      </c>
+      <c r="B337" s="3">
+        <f t="shared" si="17"/>
+        <v>335</v>
+      </c>
+      <c r="C337" s="12">
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="16"/>
+        <v>336</v>
+      </c>
+      <c r="B338" s="3">
+        <f t="shared" si="17"/>
+        <v>336</v>
+      </c>
+      <c r="C338" s="12">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="16"/>
+        <v>337</v>
+      </c>
+      <c r="B339" s="3">
+        <f t="shared" si="17"/>
+        <v>337</v>
+      </c>
+      <c r="C339" s="12">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f t="shared" si="16"/>
+        <v>338</v>
+      </c>
+      <c r="B340" s="3">
+        <f t="shared" si="17"/>
+        <v>338</v>
+      </c>
+      <c r="C340" s="12">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f t="shared" si="16"/>
+        <v>339</v>
+      </c>
+      <c r="B341" s="3">
+        <f t="shared" si="17"/>
+        <v>339</v>
+      </c>
+      <c r="C341" s="12">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f t="shared" si="16"/>
+        <v>340</v>
+      </c>
+      <c r="B342" s="3">
+        <f t="shared" si="17"/>
+        <v>340</v>
+      </c>
+      <c r="C342" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f t="shared" si="16"/>
+        <v>341</v>
+      </c>
+      <c r="B343" s="3">
+        <f t="shared" si="17"/>
+        <v>341</v>
+      </c>
+      <c r="C343" s="12">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f t="shared" si="16"/>
+        <v>342</v>
+      </c>
+      <c r="B344" s="3">
+        <f t="shared" si="17"/>
+        <v>342</v>
+      </c>
+      <c r="C344" s="12">
+        <v>9991</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f t="shared" si="16"/>
+        <v>343</v>
+      </c>
+      <c r="B345" s="3">
+        <f t="shared" si="17"/>
+        <v>343</v>
+      </c>
+      <c r="C345" s="12">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f t="shared" si="16"/>
+        <v>344</v>
+      </c>
+      <c r="B346" s="3">
+        <f t="shared" si="17"/>
+        <v>344</v>
+      </c>
+      <c r="C346" s="12">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="16"/>
+        <v>345</v>
+      </c>
+      <c r="B347" s="3">
+        <f t="shared" si="17"/>
+        <v>345</v>
+      </c>
+      <c r="C347" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f t="shared" si="16"/>
+        <v>346</v>
+      </c>
+      <c r="B348" s="3">
+        <f t="shared" si="17"/>
+        <v>346</v>
+      </c>
+      <c r="C348" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f t="shared" si="16"/>
+        <v>347</v>
+      </c>
+      <c r="B349" s="3">
+        <f t="shared" si="17"/>
+        <v>347</v>
+      </c>
+      <c r="C349" s="12">
+        <v>9987</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f t="shared" si="16"/>
+        <v>348</v>
+      </c>
+      <c r="B350" s="3">
+        <f t="shared" si="17"/>
+        <v>348</v>
+      </c>
+      <c r="C350" s="12">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f t="shared" si="16"/>
+        <v>349</v>
+      </c>
+      <c r="B351" s="3">
+        <f t="shared" si="17"/>
+        <v>349</v>
+      </c>
+      <c r="C351" s="12">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f t="shared" si="16"/>
+        <v>350</v>
+      </c>
+      <c r="B352" s="3">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+      <c r="C352" s="12">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f t="shared" si="16"/>
+        <v>351</v>
+      </c>
+      <c r="B353" s="3">
+        <f t="shared" si="17"/>
+        <v>351</v>
+      </c>
+      <c r="C353" s="12">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f t="shared" si="16"/>
+        <v>352</v>
+      </c>
+      <c r="B354" s="3">
+        <f t="shared" si="17"/>
+        <v>352</v>
+      </c>
+      <c r="C354" s="12">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f t="shared" si="16"/>
+        <v>353</v>
+      </c>
+      <c r="B355" s="3">
+        <f t="shared" si="17"/>
+        <v>353</v>
+      </c>
+      <c r="C355" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f t="shared" si="16"/>
+        <v>354</v>
+      </c>
+      <c r="B356" s="3">
+        <f t="shared" si="17"/>
+        <v>354</v>
+      </c>
+      <c r="C356" s="12">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f t="shared" si="16"/>
+        <v>355</v>
+      </c>
+      <c r="B357" s="3">
+        <f t="shared" si="17"/>
+        <v>355</v>
+      </c>
+      <c r="C357" s="12">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f t="shared" si="16"/>
+        <v>356</v>
+      </c>
+      <c r="B358" s="3">
+        <f t="shared" si="17"/>
+        <v>356</v>
+      </c>
+      <c r="C358" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="16"/>
+        <v>357</v>
+      </c>
+      <c r="B359" s="3">
+        <f t="shared" si="17"/>
+        <v>357</v>
+      </c>
+      <c r="C359" s="12">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f t="shared" si="16"/>
+        <v>358</v>
+      </c>
+      <c r="B360" s="3">
+        <f t="shared" si="17"/>
+        <v>358</v>
+      </c>
+      <c r="C360" s="12">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f t="shared" si="16"/>
+        <v>359</v>
+      </c>
+      <c r="B361" s="3">
+        <f t="shared" si="17"/>
+        <v>359</v>
+      </c>
+      <c r="C361" s="12">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f t="shared" si="16"/>
+        <v>360</v>
+      </c>
+      <c r="B362" s="3">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="C362" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f t="shared" si="16"/>
+        <v>361</v>
+      </c>
+      <c r="B363" s="3">
+        <f t="shared" si="17"/>
+        <v>361</v>
+      </c>
+      <c r="C363" s="12">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f t="shared" si="16"/>
+        <v>362</v>
+      </c>
+      <c r="B364" s="3">
+        <f t="shared" si="17"/>
+        <v>362</v>
+      </c>
+      <c r="C364" s="12">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f t="shared" si="16"/>
+        <v>363</v>
+      </c>
+      <c r="B365" s="3">
+        <f t="shared" si="17"/>
+        <v>363</v>
+      </c>
+      <c r="C365" s="12">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f t="shared" si="16"/>
+        <v>364</v>
+      </c>
+      <c r="B366" s="3">
+        <f t="shared" si="17"/>
+        <v>364</v>
+      </c>
+      <c r="C366" s="12">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="B367" s="3">
+        <f t="shared" si="17"/>
+        <v>365</v>
+      </c>
+      <c r="C367" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f t="shared" si="16"/>
+        <v>366</v>
+      </c>
+      <c r="B368" s="3">
+        <f t="shared" si="17"/>
+        <v>366</v>
+      </c>
+      <c r="C368" s="12">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="16"/>
+        <v>367</v>
+      </c>
+      <c r="B369" s="3">
+        <f t="shared" si="17"/>
+        <v>367</v>
+      </c>
+      <c r="C369" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="16"/>
+        <v>368</v>
+      </c>
+      <c r="B370" s="3">
+        <f t="shared" si="17"/>
+        <v>368</v>
+      </c>
+      <c r="C370" s="12">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="16"/>
+        <v>369</v>
+      </c>
+      <c r="B371" s="3">
+        <f t="shared" si="17"/>
+        <v>369</v>
+      </c>
+      <c r="C371" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="16"/>
+        <v>370</v>
+      </c>
+      <c r="B372" s="3">
+        <f t="shared" si="17"/>
+        <v>370</v>
+      </c>
+      <c r="C372" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="16"/>
+        <v>371</v>
+      </c>
+      <c r="B373" s="3">
+        <f t="shared" si="17"/>
+        <v>371</v>
+      </c>
+      <c r="C373" s="12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" ref="A374:B437" si="18">A373+1</f>
+        <v>372</v>
+      </c>
+      <c r="B374" s="3">
+        <f t="shared" si="18"/>
+        <v>372</v>
+      </c>
+      <c r="C374" s="12">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f t="shared" si="18"/>
+        <v>373</v>
+      </c>
+      <c r="B375" s="3">
+        <f t="shared" si="18"/>
+        <v>373</v>
+      </c>
+      <c r="C375" s="12">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f t="shared" si="18"/>
+        <v>374</v>
+      </c>
+      <c r="B376" s="3">
+        <f t="shared" si="18"/>
+        <v>374</v>
+      </c>
+      <c r="C376" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f t="shared" si="18"/>
+        <v>375</v>
+      </c>
+      <c r="B377" s="3">
+        <f t="shared" si="18"/>
+        <v>375</v>
+      </c>
+      <c r="C377" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f t="shared" si="18"/>
+        <v>376</v>
+      </c>
+      <c r="B378" s="3">
+        <f t="shared" si="18"/>
+        <v>376</v>
+      </c>
+      <c r="C378" s="12">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f t="shared" si="18"/>
+        <v>377</v>
+      </c>
+      <c r="B379" s="3">
+        <f t="shared" si="18"/>
+        <v>377</v>
+      </c>
+      <c r="C379" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f t="shared" si="18"/>
+        <v>378</v>
+      </c>
+      <c r="B380" s="3">
+        <f t="shared" si="18"/>
+        <v>378</v>
+      </c>
+      <c r="C380" s="12">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f t="shared" si="18"/>
+        <v>379</v>
+      </c>
+      <c r="B381" s="3">
+        <f t="shared" si="18"/>
+        <v>379</v>
+      </c>
+      <c r="C381" s="12">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f t="shared" si="18"/>
+        <v>380</v>
+      </c>
+      <c r="B382" s="3">
+        <f t="shared" si="18"/>
+        <v>380</v>
+      </c>
+      <c r="C382" s="12">
+        <v>9985</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f t="shared" si="18"/>
+        <v>381</v>
+      </c>
+      <c r="B383" s="3">
+        <f t="shared" si="18"/>
+        <v>381</v>
+      </c>
+      <c r="C383" s="12">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="B384" s="3">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="C384" s="12">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f t="shared" si="18"/>
+        <v>383</v>
+      </c>
+      <c r="B385" s="3">
+        <f t="shared" si="18"/>
+        <v>383</v>
+      </c>
+      <c r="C385" s="12">
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f t="shared" si="18"/>
+        <v>384</v>
+      </c>
+      <c r="B386" s="3">
+        <f t="shared" si="18"/>
+        <v>384</v>
+      </c>
+      <c r="C386" s="12">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f t="shared" si="18"/>
+        <v>385</v>
+      </c>
+      <c r="B387" s="3">
+        <f t="shared" si="18"/>
+        <v>385</v>
+      </c>
+      <c r="C387" s="12">
+        <v>9981</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f t="shared" si="18"/>
+        <v>386</v>
+      </c>
+      <c r="B388" s="3">
+        <f t="shared" si="18"/>
+        <v>386</v>
+      </c>
+      <c r="C388" s="12">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f t="shared" si="18"/>
+        <v>387</v>
+      </c>
+      <c r="B389" s="3">
+        <f t="shared" si="18"/>
+        <v>387</v>
+      </c>
+      <c r="C389" s="12">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f t="shared" si="18"/>
+        <v>388</v>
+      </c>
+      <c r="B390" s="3">
+        <f t="shared" si="18"/>
+        <v>388</v>
+      </c>
+      <c r="C390" s="12">
+        <v>9982</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f t="shared" si="18"/>
+        <v>389</v>
+      </c>
+      <c r="B391" s="3">
+        <f t="shared" si="18"/>
+        <v>389</v>
+      </c>
+      <c r="C391" s="12">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f t="shared" si="18"/>
+        <v>390</v>
+      </c>
+      <c r="B392" s="3">
+        <f t="shared" si="18"/>
+        <v>390</v>
+      </c>
+      <c r="C392" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f t="shared" si="18"/>
+        <v>391</v>
+      </c>
+      <c r="B393" s="3">
+        <f t="shared" si="18"/>
+        <v>391</v>
+      </c>
+      <c r="C393" s="8">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f t="shared" si="18"/>
+        <v>392</v>
+      </c>
+      <c r="B394" s="3">
+        <f t="shared" si="18"/>
+        <v>392</v>
+      </c>
+      <c r="C394" s="8">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f t="shared" si="18"/>
+        <v>393</v>
+      </c>
+      <c r="B395" s="3">
+        <f t="shared" si="18"/>
+        <v>393</v>
+      </c>
+      <c r="C395" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f t="shared" si="18"/>
+        <v>394</v>
+      </c>
+      <c r="B396" s="3">
+        <f t="shared" si="18"/>
+        <v>394</v>
+      </c>
+      <c r="C396" s="8">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f t="shared" si="18"/>
+        <v>395</v>
+      </c>
+      <c r="B397" s="3">
+        <f t="shared" si="18"/>
+        <v>395</v>
+      </c>
+      <c r="C397" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f t="shared" si="18"/>
+        <v>396</v>
+      </c>
+      <c r="B398" s="3">
+        <f t="shared" si="18"/>
+        <v>396</v>
+      </c>
+      <c r="C398" s="8">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f t="shared" si="18"/>
+        <v>397</v>
+      </c>
+      <c r="B399" s="3">
+        <f t="shared" si="18"/>
+        <v>397</v>
+      </c>
+      <c r="C399" s="8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f t="shared" si="18"/>
+        <v>398</v>
+      </c>
+      <c r="B400" s="3">
+        <f t="shared" si="18"/>
+        <v>398</v>
+      </c>
+      <c r="C400" s="8">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f t="shared" si="18"/>
+        <v>399</v>
+      </c>
+      <c r="B401" s="3">
+        <f t="shared" si="18"/>
+        <v>399</v>
+      </c>
+      <c r="C401" s="8">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+      <c r="B402" s="3">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+      <c r="C402" s="8">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f t="shared" si="18"/>
+        <v>401</v>
+      </c>
+      <c r="B403" s="3">
+        <f t="shared" si="18"/>
+        <v>401</v>
+      </c>
+      <c r="C403" s="8">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f t="shared" si="18"/>
+        <v>402</v>
+      </c>
+      <c r="B404" s="3">
+        <f t="shared" si="18"/>
+        <v>402</v>
+      </c>
+      <c r="C404" s="8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f t="shared" si="18"/>
+        <v>403</v>
+      </c>
+      <c r="B405" s="3">
+        <f t="shared" si="18"/>
+        <v>403</v>
+      </c>
+      <c r="C405" s="8">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f t="shared" si="18"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="3">
+        <f t="shared" si="18"/>
+        <v>404</v>
+      </c>
+      <c r="C406" s="8">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f t="shared" si="18"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="3">
+        <f t="shared" si="18"/>
+        <v>405</v>
+      </c>
+      <c r="C407" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="3">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="C408" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f t="shared" si="18"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="3">
+        <f t="shared" si="18"/>
+        <v>407</v>
+      </c>
+      <c r="C409" s="8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f t="shared" si="18"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="3">
+        <f t="shared" si="18"/>
+        <v>408</v>
+      </c>
+      <c r="C410" s="8">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f t="shared" si="18"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="3">
+        <f t="shared" si="18"/>
+        <v>409</v>
+      </c>
+      <c r="C411" s="8">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f t="shared" si="18"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="3">
+        <f t="shared" si="18"/>
+        <v>410</v>
+      </c>
+      <c r="C412" s="8">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f t="shared" si="18"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="3">
+        <f t="shared" si="18"/>
+        <v>411</v>
+      </c>
+      <c r="C413" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f t="shared" si="18"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="3">
+        <f t="shared" si="18"/>
+        <v>412</v>
+      </c>
+      <c r="C414" s="8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f t="shared" si="18"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="3">
+        <f t="shared" si="18"/>
+        <v>413</v>
+      </c>
+      <c r="C415" s="8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f t="shared" si="18"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="3">
+        <f t="shared" si="18"/>
+        <v>414</v>
+      </c>
+      <c r="C416" s="8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f t="shared" si="18"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="3">
+        <f t="shared" si="18"/>
+        <v>415</v>
+      </c>
+      <c r="C417" s="8">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <f t="shared" si="18"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="3">
+        <f t="shared" si="18"/>
+        <v>416</v>
+      </c>
+      <c r="C418" s="8">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <f t="shared" si="18"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="3">
+        <f t="shared" si="18"/>
+        <v>417</v>
+      </c>
+      <c r="C419" s="8">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <f t="shared" si="18"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="3">
+        <f t="shared" si="18"/>
+        <v>418</v>
+      </c>
+      <c r="C420" s="8">
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="3">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="C421" s="8">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="3">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="C422" s="8">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <f t="shared" si="18"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="3">
+        <f t="shared" si="18"/>
+        <v>421</v>
+      </c>
+      <c r="C423" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <f t="shared" si="18"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="3">
+        <f t="shared" si="18"/>
+        <v>422</v>
+      </c>
+      <c r="C424" s="8">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <f t="shared" si="18"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="3">
+        <f t="shared" si="18"/>
+        <v>423</v>
+      </c>
+      <c r="C425" s="8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <f t="shared" si="18"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="3">
+        <f t="shared" si="18"/>
+        <v>424</v>
+      </c>
+      <c r="C426" s="8">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <f t="shared" si="18"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="3">
+        <f t="shared" si="18"/>
+        <v>425</v>
+      </c>
+      <c r="C427" s="8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <f t="shared" si="18"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="3">
+        <f t="shared" si="18"/>
+        <v>426</v>
+      </c>
+      <c r="C428" s="8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <f t="shared" si="18"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="3">
+        <f t="shared" si="18"/>
+        <v>427</v>
+      </c>
+      <c r="C429" s="8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <f t="shared" si="18"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="3">
+        <f t="shared" si="18"/>
+        <v>428</v>
+      </c>
+      <c r="C430" s="8">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <f t="shared" si="18"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="3">
+        <f t="shared" si="18"/>
+        <v>429</v>
+      </c>
+      <c r="C431" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <f t="shared" si="18"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="3">
+        <f t="shared" si="18"/>
+        <v>430</v>
+      </c>
+      <c r="C432" s="8">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <f t="shared" si="18"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="3">
+        <f t="shared" si="18"/>
+        <v>431</v>
+      </c>
+      <c r="C433" s="8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <f t="shared" si="18"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="3">
+        <f t="shared" si="18"/>
+        <v>432</v>
+      </c>
+      <c r="C434" s="8">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <f t="shared" si="18"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="3">
+        <f t="shared" si="18"/>
+        <v>433</v>
+      </c>
+      <c r="C435" s="8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <f t="shared" si="18"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="3">
+        <f t="shared" si="18"/>
+        <v>434</v>
+      </c>
+      <c r="C436" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <f t="shared" si="18"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="3">
+        <f t="shared" si="18"/>
+        <v>435</v>
+      </c>
+      <c r="C437" s="8">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <f t="shared" ref="A438:B438" si="19">A437+1</f>
+        <v>436</v>
+      </c>
+      <c r="B438" s="3">
+        <f t="shared" si="19"/>
+        <v>436</v>
+      </c>
+      <c r="C438" s="8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <f t="shared" ref="A439:B439" si="20">A438+1</f>
+        <v>437</v>
+      </c>
+      <c r="B439" s="3">
+        <f t="shared" si="20"/>
+        <v>437</v>
+      </c>
+      <c r="C439" s="13">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <f t="shared" ref="A440:B440" si="21">A439+1</f>
+        <v>438</v>
+      </c>
+      <c r="B440" s="3">
+        <f t="shared" si="21"/>
+        <v>438</v>
+      </c>
+      <c r="C440" s="13">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <f t="shared" ref="A441:B441" si="22">A440+1</f>
+        <v>439</v>
+      </c>
+      <c r="B441" s="3">
+        <f t="shared" si="22"/>
+        <v>439</v>
+      </c>
+      <c r="C441" s="13">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <f t="shared" ref="A442:B442" si="23">A441+1</f>
+        <v>440</v>
+      </c>
+      <c r="B442" s="3">
+        <f t="shared" si="23"/>
+        <v>440</v>
+      </c>
+      <c r="C442" s="13">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <f t="shared" ref="A443:B443" si="24">A442+1</f>
+        <v>441</v>
+      </c>
+      <c r="B443" s="3">
+        <f t="shared" si="24"/>
+        <v>441</v>
+      </c>
+      <c r="C443" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <f t="shared" ref="A444:B444" si="25">A443+1</f>
+        <v>442</v>
+      </c>
+      <c r="B444" s="3">
+        <f t="shared" si="25"/>
+        <v>442</v>
+      </c>
+      <c r="C444" s="13">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <f t="shared" ref="A445:B445" si="26">A444+1</f>
+        <v>443</v>
+      </c>
+      <c r="B445" s="3">
+        <f t="shared" si="26"/>
+        <v>443</v>
+      </c>
+      <c r="C445" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <f t="shared" ref="A446:B446" si="27">A445+1</f>
+        <v>444</v>
+      </c>
+      <c r="B446" s="3">
+        <f t="shared" si="27"/>
+        <v>444</v>
+      </c>
+      <c r="C446" s="13">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <f t="shared" ref="A447:B447" si="28">A446+1</f>
+        <v>445</v>
+      </c>
+      <c r="B447" s="3">
+        <f t="shared" si="28"/>
+        <v>445</v>
+      </c>
+      <c r="C447" s="13">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <f t="shared" ref="A448:B448" si="29">A447+1</f>
+        <v>446</v>
+      </c>
+      <c r="B448" s="3">
+        <f t="shared" si="29"/>
+        <v>446</v>
+      </c>
+      <c r="C448" s="13">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <f t="shared" ref="A449:B449" si="30">A448+1</f>
+        <v>447</v>
+      </c>
+      <c r="B449" s="3">
+        <f t="shared" si="30"/>
+        <v>447</v>
+      </c>
+      <c r="C449" s="13">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <f t="shared" ref="A450:B450" si="31">A449+1</f>
+        <v>448</v>
+      </c>
+      <c r="B450" s="3">
+        <f t="shared" si="31"/>
+        <v>448</v>
+      </c>
+      <c r="C450" s="13">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <f t="shared" ref="A451:B451" si="32">A450+1</f>
+        <v>449</v>
+      </c>
+      <c r="B451" s="3">
+        <f t="shared" si="32"/>
+        <v>449</v>
+      </c>
+      <c r="C451" s="13">
+        <v>9976</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <f t="shared" ref="A452:B452" si="33">A451+1</f>
+        <v>450</v>
+      </c>
+      <c r="B452" s="3">
+        <f t="shared" si="33"/>
+        <v>450</v>
+      </c>
+      <c r="C452" s="13">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <f t="shared" ref="A453:B453" si="34">A452+1</f>
+        <v>451</v>
+      </c>
+      <c r="B453" s="3">
+        <f t="shared" si="34"/>
+        <v>451</v>
+      </c>
+      <c r="C453" s="13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <f t="shared" ref="A454:B454" si="35">A453+1</f>
+        <v>452</v>
+      </c>
+      <c r="B454" s="3">
+        <f t="shared" si="35"/>
+        <v>452</v>
+      </c>
+      <c r="C454" s="13">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <f t="shared" ref="A455:B455" si="36">A454+1</f>
+        <v>453</v>
+      </c>
+      <c r="B455" s="3">
+        <f t="shared" si="36"/>
+        <v>453</v>
+      </c>
+      <c r="C455" s="13">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <f t="shared" ref="A456:B456" si="37">A455+1</f>
+        <v>454</v>
+      </c>
+      <c r="B456" s="3">
+        <f t="shared" si="37"/>
+        <v>454</v>
+      </c>
+      <c r="C456" s="13">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <f t="shared" ref="A457:B457" si="38">A456+1</f>
+        <v>455</v>
+      </c>
+      <c r="B457" s="3">
+        <f t="shared" si="38"/>
+        <v>455</v>
+      </c>
+      <c r="C457" s="13">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <f t="shared" ref="A458:B458" si="39">A457+1</f>
+        <v>456</v>
+      </c>
+      <c r="B458" s="3">
+        <f t="shared" si="39"/>
+        <v>456</v>
+      </c>
+      <c r="C458" s="13">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <f t="shared" ref="A459:B459" si="40">A458+1</f>
+        <v>457</v>
+      </c>
+      <c r="B459" s="3">
+        <f t="shared" si="40"/>
+        <v>457</v>
+      </c>
+      <c r="C459" s="13">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <f t="shared" ref="A460:B460" si="41">A459+1</f>
+        <v>458</v>
+      </c>
+      <c r="B460" s="3">
+        <f t="shared" si="41"/>
+        <v>458</v>
+      </c>
+      <c r="C460" s="13">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <f t="shared" ref="A461:B461" si="42">A460+1</f>
+        <v>459</v>
+      </c>
+      <c r="B461" s="3">
+        <f t="shared" si="42"/>
+        <v>459</v>
+      </c>
+      <c r="C461" s="13">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <f t="shared" ref="A462:B462" si="43">A461+1</f>
+        <v>460</v>
+      </c>
+      <c r="B462" s="3">
+        <f t="shared" si="43"/>
+        <v>460</v>
+      </c>
+      <c r="C462" s="13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <f t="shared" ref="A463:B463" si="44">A462+1</f>
+        <v>461</v>
+      </c>
+      <c r="B463" s="3">
+        <f t="shared" si="44"/>
+        <v>461</v>
+      </c>
+      <c r="C463" s="13">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <f t="shared" ref="A464:B464" si="45">A463+1</f>
+        <v>462</v>
+      </c>
+      <c r="B464" s="3">
+        <f t="shared" si="45"/>
+        <v>462</v>
+      </c>
+      <c r="C464" s="13">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <f t="shared" ref="A465:B465" si="46">A464+1</f>
+        <v>463</v>
+      </c>
+      <c r="B465" s="3">
+        <f t="shared" si="46"/>
+        <v>463</v>
+      </c>
+      <c r="C465" s="13">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <f t="shared" ref="A466:B466" si="47">A465+1</f>
+        <v>464</v>
+      </c>
+      <c r="B466" s="3">
+        <f t="shared" si="47"/>
+        <v>464</v>
+      </c>
+      <c r="C466" s="13">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <f t="shared" ref="A467:B467" si="48">A466+1</f>
+        <v>465</v>
+      </c>
+      <c r="B467" s="3">
+        <f t="shared" si="48"/>
+        <v>465</v>
+      </c>
+      <c r="C467" s="13">
+        <v>9991</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <f t="shared" ref="A468:B468" si="49">A467+1</f>
+        <v>466</v>
+      </c>
+      <c r="B468" s="3">
+        <f t="shared" si="49"/>
+        <v>466</v>
+      </c>
+      <c r="C468" s="13">
+        <v>9982</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <f t="shared" ref="A469:B469" si="50">A468+1</f>
+        <v>467</v>
+      </c>
+      <c r="B469" s="3">
+        <f t="shared" si="50"/>
+        <v>467</v>
+      </c>
+      <c r="C469" s="13">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <f t="shared" ref="A470:B470" si="51">A469+1</f>
+        <v>468</v>
+      </c>
+      <c r="B470" s="3">
+        <f t="shared" si="51"/>
+        <v>468</v>
+      </c>
+      <c r="C470" s="13">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <f t="shared" ref="A471:B471" si="52">A470+1</f>
+        <v>469</v>
+      </c>
+      <c r="B471" s="3">
+        <f t="shared" si="52"/>
+        <v>469</v>
+      </c>
+      <c r="C471" s="13">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <f t="shared" ref="A472:B472" si="53">A471+1</f>
+        <v>470</v>
+      </c>
+      <c r="B472" s="3">
+        <f t="shared" si="53"/>
+        <v>470</v>
+      </c>
+      <c r="C472" s="13">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <f t="shared" ref="A473:B473" si="54">A472+1</f>
+        <v>471</v>
+      </c>
+      <c r="B473" s="3">
+        <f t="shared" si="54"/>
+        <v>471</v>
+      </c>
+      <c r="C473" s="13">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <f t="shared" ref="A474:B474" si="55">A473+1</f>
+        <v>472</v>
+      </c>
+      <c r="B474" s="3">
+        <f t="shared" si="55"/>
+        <v>472</v>
+      </c>
+      <c r="C474" s="13">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <f t="shared" ref="A475:B475" si="56">A474+1</f>
+        <v>473</v>
+      </c>
+      <c r="B475" s="3">
+        <f t="shared" si="56"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <f t="shared" ref="A476:B476" si="57">A475+1</f>
+        <v>474</v>
+      </c>
+      <c r="B476" s="3">
+        <f t="shared" si="57"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <f t="shared" ref="A477:B477" si="58">A476+1</f>
+        <v>475</v>
+      </c>
+      <c r="B477" s="3">
+        <f t="shared" si="58"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <f t="shared" ref="A478:B478" si="59">A477+1</f>
+        <v>476</v>
+      </c>
+      <c r="B478" s="3">
+        <f t="shared" si="59"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <f t="shared" ref="A479:B479" si="60">A478+1</f>
+        <v>477</v>
+      </c>
+      <c r="B479" s="3">
+        <f t="shared" si="60"/>
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
